--- a/TokenCTNEOSBlockExpl.xlsx
+++ b/TokenCTNEOSBlockExpl.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xing9\Documents\GitHub\eoscrazytown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1983935-9B66-43DA-9848-F0F2CDFAE899}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BD46B5-462A-41B3-B1CE-A69BA833E045}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2063,7 +2063,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2077,6 +2077,18 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2119,10 +2131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2439,9 +2453,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B65" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -2457,59 +2479,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" s="4" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" s="4" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" s="4" customFormat="1">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
